--- a/blNeu/Daten Connect to Grow.xlsx
+++ b/blNeu/Daten Connect to Grow.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandyschulz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\myWork\gitCtg\ConnectToGrow\blNeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldemaske" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Nummer</t>
   </si>
@@ -141,58 +141,40 @@
     <t>Als Hightech-Startup haben wir uns auf die Entwicklung und Vermarktung revolutionärer Robotersysteme spezialisiert und bieten eine innovative, flexible und dynamisches Zusammenarbeit. Wir sind geleitet von der Vision, Roboter zu einem Bedarfsartikel zu machen, der den Menschen in den Mittelpunkt der Entwicklung stellt und damit sowohl ein intuitives Kundenerlebnis schafft, als auch Automatisierung mit modernen Internet basierten Technologien verbindet.</t>
   </si>
   <si>
-    <t>Bild 1</t>
-  </si>
-  <si>
-    <t>Bild 2</t>
-  </si>
-  <si>
-    <t>Bild 3</t>
-  </si>
-  <si>
-    <t>Bild 4</t>
-  </si>
-  <si>
-    <t>Bild 5</t>
-  </si>
-  <si>
-    <t>Bild 6</t>
-  </si>
-  <si>
-    <t>Bild 7</t>
-  </si>
-  <si>
-    <t>Bild 8</t>
-  </si>
-  <si>
-    <t>Logo 8</t>
-  </si>
-  <si>
-    <t>Logo 7</t>
-  </si>
-  <si>
-    <t>Logo 6</t>
-  </si>
-  <si>
-    <t>Logo 4</t>
-  </si>
-  <si>
-    <t>Logo 5</t>
-  </si>
-  <si>
-    <t>Logo 3</t>
-  </si>
-  <si>
     <t>Aaron AI</t>
   </si>
   <si>
-    <t>Logo 2</t>
+    <t>3dprint.jpg</t>
+  </si>
+  <si>
+    <t>thumb_1.png</t>
+  </si>
+  <si>
+    <t>thumb_2.png</t>
+  </si>
+  <si>
+    <t>thumb_3.png</t>
+  </si>
+  <si>
+    <t>thumb_4.png</t>
+  </si>
+  <si>
+    <t>logo1.jpg</t>
+  </si>
+  <si>
+    <t>logo2.jpg</t>
+  </si>
+  <si>
+    <t>logo3.jpg</t>
+  </si>
+  <si>
+    <t>logo4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -255,13 +237,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,25 +514,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -611,7 +596,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,7 +628,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -681,21 +666,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -723,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
@@ -735,18 +720,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>36</v>
@@ -755,7 +740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -763,10 +748,10 @@
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>36</v>
@@ -775,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -783,10 +768,10 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>36</v>
@@ -795,7 +780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -803,10 +788,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>36</v>
@@ -815,7 +800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -823,7 +808,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>42</v>
@@ -835,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -843,10 +828,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
@@ -855,7 +840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -863,10 +848,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
@@ -875,10 +860,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
